--- a/result.xlsx
+++ b/result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
   <si>
     <t>Team A</t>
   </si>
@@ -50,91 +50,196 @@
     <t>Leicester</t>
   </si>
   <si>
-    <t>1,36</t>
+    <t>1,35</t>
+  </si>
+  <si>
+    <t>5,50</t>
+  </si>
+  <si>
+    <t>7,25</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Valioliiga</t>
+  </si>
+  <si>
+    <t>https://www.bmbets.com/search/?query=newcastle</t>
+  </si>
+  <si>
+    <t>https://www.veikkaus.fi/fi/vedonlyonti?t=1-2-1_Valioliiga</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>3,90</t>
+  </si>
+  <si>
+    <t>4,15</t>
+  </si>
+  <si>
+    <t>1,76</t>
+  </si>
+  <si>
+    <t>Ke</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>https://www.bmbets.com/search/?query=brighton</t>
+  </si>
+  <si>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>1,59</t>
+  </si>
+  <si>
+    <t>4,30</t>
+  </si>
+  <si>
+    <t>4,90</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>https://www.bmbets.com/search/?query=manchester+united</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Wolverhampton</t>
   </si>
   <si>
     <t>5,40</t>
   </si>
   <si>
-    <t>7,00</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>NHL</t>
-  </si>
-  <si>
-    <t>https://www.bmbets.com/search/?query=newcastle</t>
-  </si>
-  <si>
-    <t>https://www.veikkaus.fi/fi/vedonlyonti?t=1-1-8_Kansallinen%20Liiga</t>
-  </si>
-  <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Manchester City</t>
+    <t>Su</t>
+  </si>
+  <si>
+    <t>18.30</t>
+  </si>
+  <si>
+    <t>https://www.bmbets.com/search/?query=arsenal</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>2,26</t>
+  </si>
+  <si>
+    <t>3,70</t>
+  </si>
+  <si>
+    <t>2,84</t>
+  </si>
+  <si>
+    <t>https://www.bmbets.com/search/?query=aston+villa</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>4,85</t>
+  </si>
+  <si>
+    <t>4,25</t>
+  </si>
+  <si>
+    <t>1,61</t>
+  </si>
+  <si>
+    <t>https://www.bmbets.com/search/?query=brentford</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Nottingham Forest</t>
+  </si>
+  <si>
+    <t>1,72</t>
   </si>
   <si>
     <t>3,95</t>
   </si>
   <si>
-    <t>4,15</t>
-  </si>
-  <si>
-    <t>1,75</t>
-  </si>
-  <si>
-    <t>Ke</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>https://www.bmbets.com/search/?query=brighton</t>
-  </si>
-  <si>
-    <t>Manchester United</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
-    <t>1,59</t>
-  </si>
-  <si>
-    <t>4,30</t>
-  </si>
-  <si>
-    <t>4,90</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>https://www.bmbets.com/search/?query=manchester+united</t>
-  </si>
-  <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>Wolverhampton</t>
-  </si>
-  <si>
-    <t>1,37</t>
+    <t>4,35</t>
+  </si>
+  <si>
+    <t>https://www.bmbets.com/search/?query=crystal+palace</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>1,45</t>
+  </si>
+  <si>
+    <t>4,45</t>
+  </si>
+  <si>
+    <t>6,60</t>
+  </si>
+  <si>
+    <t>https://www.bmbets.com/search/?query=everton</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
+    <t>2,66</t>
+  </si>
+  <si>
+    <t>3,65</t>
+  </si>
+  <si>
+    <t>2,42</t>
+  </si>
+  <si>
+    <t>https://www.bmbets.com/search/?query=leeds</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>1,43</t>
+  </si>
+  <si>
+    <t>6,30</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
   </si>
   <si>
     <t>5,30</t>
   </si>
   <si>
-    <t>Su</t>
-  </si>
-  <si>
-    <t>18.30</t>
-  </si>
-  <si>
-    <t>https://www.bmbets.com/search/?query=arsenal</t>
+    <t>1,38</t>
+  </si>
+  <si>
+    <t>https://www.bmbets.com/search/?query=southampton</t>
   </si>
 </sst>
 </file>
@@ -179,7 +284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -283,31 +388,31 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
         <v>18</v>
@@ -315,31 +420,31 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
@@ -347,31 +452,31 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
@@ -379,33 +484,193 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
         <v>18</v>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="138">
   <si>
     <t>Team A</t>
   </si>
@@ -44,6 +44,210 @@
     <t>For URL</t>
   </si>
   <si>
+    <t>AC Oulu</t>
+  </si>
+  <si>
+    <t>FC Honka</t>
+  </si>
+  <si>
+    <t>3,05</t>
+  </si>
+  <si>
+    <t>3,20</t>
+  </si>
+  <si>
+    <t>2,38</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>Veikkausliiga</t>
+  </si>
+  <si>
+    <t>https://www.bmbets.com/search/?query=ac+oulu</t>
+  </si>
+  <si>
+    <t>https://www.veikkaus.fi/fi/vedonlyonti?t=1-1-1_Veikkausliiga</t>
+  </si>
+  <si>
+    <t>FC Haka</t>
+  </si>
+  <si>
+    <t>VPS</t>
+  </si>
+  <si>
+    <t>1,96</t>
+  </si>
+  <si>
+    <t>3,40</t>
+  </si>
+  <si>
+    <t>3,90</t>
+  </si>
+  <si>
+    <t>https://www.bmbets.com/search/?query=fc+haka</t>
+  </si>
+  <si>
+    <t>FC Inter</t>
+  </si>
+  <si>
+    <t>IFK Mariehamn</t>
+  </si>
+  <si>
+    <t>1,68</t>
+  </si>
+  <si>
+    <t>3,95</t>
+  </si>
+  <si>
+    <t>4,70</t>
+  </si>
+  <si>
+    <t>https://www.bmbets.com/search/?query=fc+inter</t>
+  </si>
+  <si>
+    <t>KTP</t>
+  </si>
+  <si>
+    <t>SJK</t>
+  </si>
+  <si>
+    <t>3,55</t>
+  </si>
+  <si>
+    <t>1,90</t>
+  </si>
+  <si>
+    <t>https://www.bmbets.com/search/?query=ktp</t>
+  </si>
+  <si>
+    <t>HIFK</t>
+  </si>
+  <si>
+    <t>JäPS</t>
+  </si>
+  <si>
+    <t>3,60</t>
+  </si>
+  <si>
+    <t>18.30</t>
+  </si>
+  <si>
+    <t>Ykkönen</t>
+  </si>
+  <si>
+    <t>https://www.bmbets.com/search/?query=hifk</t>
+  </si>
+  <si>
+    <t>https://www.veikkaus.fi/fi/vedonlyonti?t=1-1-2_Ykk%C3%B6nen</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>SJK Akatemia</t>
+  </si>
+  <si>
+    <t>2,08</t>
+  </si>
+  <si>
+    <t>3,15</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>https://www.bmbets.com/search/?query=mp</t>
+  </si>
+  <si>
+    <t>Atlantis Akatemia</t>
+  </si>
+  <si>
+    <t>PEPO</t>
+  </si>
+  <si>
+    <t>4,65</t>
+  </si>
+  <si>
+    <t>1,52</t>
+  </si>
+  <si>
+    <t>Ti</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>Kakkonen Lohko A</t>
+  </si>
+  <si>
+    <t>https://www.bmbets.com/search/?query=atlantis+akatemia</t>
+  </si>
+  <si>
+    <t>https://www.veikkaus.fi/fi/vedonlyonti?t=1-1-19_Kakkonen%20Lohko%20A</t>
+  </si>
+  <si>
+    <t>FC Kiffen</t>
+  </si>
+  <si>
+    <t>HJK Klubi 04</t>
+  </si>
+  <si>
+    <t>3,65</t>
+  </si>
+  <si>
+    <t>4,05</t>
+  </si>
+  <si>
+    <t>1,75</t>
+  </si>
+  <si>
+    <t>https://www.bmbets.com/search/?query=fc+kiffen</t>
+  </si>
+  <si>
+    <t>Ilves/2</t>
+  </si>
+  <si>
+    <t>FC Jazz</t>
+  </si>
+  <si>
+    <t>2,56</t>
+  </si>
+  <si>
+    <t>4,20</t>
+  </si>
+  <si>
+    <t>2,16</t>
+  </si>
+  <si>
+    <t>Kakkonen Lohko B</t>
+  </si>
+  <si>
+    <t>https://www.bmbets.com/search/?query=ilves%2f2</t>
+  </si>
+  <si>
+    <t>https://www.veikkaus.fi/fi/vedonlyonti?t=1-1-20_Kakkonen%20Lohko%20B</t>
+  </si>
+  <si>
+    <t>P-Iirot</t>
+  </si>
+  <si>
+    <t>GrIFK</t>
+  </si>
+  <si>
+    <t>2,00</t>
+  </si>
+  <si>
+    <t>3,00</t>
+  </si>
+  <si>
+    <t>https://www.bmbets.com/search/?query=p-iirot</t>
+  </si>
+  <si>
     <t>Newcastle</t>
   </si>
   <si>
@@ -59,7 +263,7 @@
     <t>7,25</t>
   </si>
   <si>
-    <t/>
+    <t>22.00</t>
   </si>
   <si>
     <t>Valioliiga</t>
@@ -77,9 +281,6 @@
     <t>Manchester City</t>
   </si>
   <si>
-    <t>3,90</t>
-  </si>
-  <si>
     <t>4,15</t>
   </si>
   <si>
@@ -89,9 +290,6 @@
     <t>Ke</t>
   </si>
   <si>
-    <t>22.00</t>
-  </si>
-  <si>
     <t>https://www.bmbets.com/search/?query=brighton</t>
   </si>
   <si>
@@ -110,9 +308,6 @@
     <t>4,90</t>
   </si>
   <si>
-    <t>To</t>
-  </si>
-  <si>
     <t>https://www.bmbets.com/search/?query=manchester+united</t>
   </si>
   <si>
@@ -128,9 +323,6 @@
     <t>Su</t>
   </si>
   <si>
-    <t>18.30</t>
-  </si>
-  <si>
     <t>https://www.bmbets.com/search/?query=arsenal</t>
   </si>
   <si>
@@ -173,9 +365,6 @@
     <t>1,72</t>
   </si>
   <si>
-    <t>3,95</t>
-  </si>
-  <si>
     <t>4,35</t>
   </si>
   <si>
@@ -207,9 +396,6 @@
   </si>
   <si>
     <t>2,66</t>
-  </si>
-  <si>
-    <t>3,65</t>
   </si>
   <si>
     <t>2,42</t>
@@ -284,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -342,176 +528,176 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="H6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" t="s">
+      <c r="J6" t="s">
         <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
       </c>
       <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
         <v>47</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>48</v>
       </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
@@ -525,153 +711,473 @@
         <v>52</v>
       </c>
       <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>54</v>
       </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
         <v>56</v>
       </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
         <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" t="s">
         <v>70</v>
       </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" t="s">
+        <v>108</v>
+      </c>
+      <c r="J16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" t="s">
+        <v>118</v>
+      </c>
+      <c r="J18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" t="s">
+        <v>137</v>
+      </c>
+      <c r="J22" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
